--- a/Excel-XLSX/UN-SRV.xlsx
+++ b/Excel-XLSX/UN-SRV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>qf5Ug0</t>
+    <t>DV9b2v</t>
   </si>
   <si>
     <t>1971</t>
@@ -123,7 +123,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -240,6 +240,345 @@
     <t>14</t>
   </si>
   <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>23060</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>21150</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>20148</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>16263</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>5084</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>34400</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>15945</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>15360</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2357</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>7200</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10200</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>29522</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>34110</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>30581</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>32890</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>35475</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>26811</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>262</t>
   </si>
   <si>
@@ -249,325 +588,10 @@
     <t>UKN</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>200</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>23060</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>21150</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>20148</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>16263</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>5084</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>34400</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>15945</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>15360</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2357</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>7200</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1928</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>10200</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>11500</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>29522</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>34110</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>30581</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>32890</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>35475</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -952,7 +976,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1092,8 +1116,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1160,8 +1184,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>34</v>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1228,8 +1252,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>34</v>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1296,8 +1320,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>34</v>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1364,8 +1388,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>34</v>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1432,8 +1456,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>34</v>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1500,8 +1524,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>34</v>
+      <c r="V8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1568,8 +1592,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>34</v>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1636,8 +1660,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>34</v>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1704,8 +1728,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>34</v>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1772,8 +1796,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>34</v>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1840,8 +1864,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>34</v>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1908,8 +1932,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>34</v>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1926,19 +1950,19 @@
         <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1953,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -1976,8 +2000,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>34</v>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1991,10 +2015,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -2021,7 +2045,7 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -2044,8 +2068,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>34</v>
+      <c r="V16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -2059,10 +2083,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>25</v>
@@ -2089,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>34</v>
@@ -2112,8 +2136,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>34</v>
+      <c r="V17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2127,10 +2151,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -2157,7 +2181,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
@@ -2180,8 +2204,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>34</v>
+      <c r="V18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2195,10 +2219,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>25</v>
@@ -2225,7 +2249,7 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>34</v>
@@ -2248,8 +2272,8 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>34</v>
+      <c r="V19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -2263,10 +2287,10 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>25</v>
@@ -2293,13 +2317,13 @@
         <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>34</v>
@@ -2316,8 +2340,8 @@
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>34</v>
+      <c r="V20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2331,10 +2355,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
@@ -2361,13 +2385,13 @@
         <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>34</v>
@@ -2384,8 +2408,8 @@
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>34</v>
+      <c r="V21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -2399,10 +2423,10 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
@@ -2429,7 +2453,7 @@
         <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>34</v>
@@ -2452,8 +2476,8 @@
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>34</v>
+      <c r="V22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -2467,10 +2491,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
@@ -2497,7 +2521,7 @@
         <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>34</v>
@@ -2520,8 +2544,8 @@
       <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>34</v>
+      <c r="V23" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -2535,10 +2559,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2565,7 +2589,7 @@
         <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>34</v>
@@ -2588,8 +2612,8 @@
       <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>34</v>
+      <c r="V24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -2603,10 +2627,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
@@ -2656,8 +2680,8 @@
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>34</v>
+      <c r="V25" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -2671,10 +2695,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2701,7 +2725,7 @@
         <v>32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2724,8 +2748,8 @@
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>34</v>
+      <c r="V26" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -2739,10 +2763,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -2769,7 +2793,7 @@
         <v>32</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2792,8 +2816,8 @@
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>34</v>
+      <c r="V27" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2807,10 +2831,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
@@ -2837,7 +2861,7 @@
         <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>34</v>
@@ -2860,8 +2884,8 @@
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>34</v>
+      <c r="V28" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -2875,10 +2899,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -2905,7 +2929,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>34</v>
@@ -2928,8 +2952,8 @@
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>34</v>
+      <c r="V29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -2943,10 +2967,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
@@ -2973,7 +2997,7 @@
         <v>32</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>34</v>
@@ -2996,8 +3020,8 @@
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>34</v>
+      <c r="V30" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -3011,10 +3035,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>25</v>
@@ -3041,7 +3065,7 @@
         <v>32</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>34</v>
@@ -3064,8 +3088,8 @@
       <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>34</v>
+      <c r="V31" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3103,10 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>25</v>
@@ -3109,7 +3133,7 @@
         <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>34</v>
@@ -3132,8 +3156,8 @@
       <c r="U32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>34</v>
+      <c r="V32" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -3150,7 +3174,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>25</v>
@@ -3177,7 +3201,7 @@
         <v>32</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>34</v>
@@ -3200,8 +3224,8 @@
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>34</v>
+      <c r="V33" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -3215,10 +3239,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>25</v>
@@ -3245,7 +3269,7 @@
         <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>34</v>
@@ -3268,8 +3292,8 @@
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>34</v>
+      <c r="V34" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -3283,22 +3307,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3313,7 +3337,7 @@
         <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>34</v>
@@ -3328,7 +3352,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>34</v>
@@ -3336,8 +3360,8 @@
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>34</v>
+      <c r="V35" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3375,10 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>25</v>
@@ -3381,7 +3405,7 @@
         <v>32</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>34</v>
@@ -3404,8 +3428,8 @@
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>34</v>
+      <c r="V36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -3419,22 +3443,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3449,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>34</v>
@@ -3464,7 +3488,7 @@
         <v>34</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>34</v>
@@ -3472,8 +3496,8 @@
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>34</v>
+      <c r="V37" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -3487,10 +3511,10 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>25</v>
@@ -3517,7 +3541,7 @@
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>34</v>
@@ -3540,8 +3564,8 @@
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>34</v>
+      <c r="V38" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -3555,22 +3579,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3585,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>34</v>
@@ -3600,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>34</v>
@@ -3608,8 +3632,8 @@
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>34</v>
+      <c r="V39" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -3623,22 +3647,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3653,7 +3677,7 @@
         <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>34</v>
@@ -3694,19 +3718,19 @@
         <v>142</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3736,7 +3760,7 @@
         <v>34</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>34</v>
@@ -3744,8 +3768,8 @@
       <c r="U41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>34</v>
+      <c r="V41" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -3759,22 +3783,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -3789,7 +3813,7 @@
         <v>32</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>34</v>
@@ -3804,7 +3828,7 @@
         <v>34</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>34</v>
@@ -3812,8 +3836,8 @@
       <c r="U42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>34</v>
+      <c r="V42" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43">
@@ -3827,22 +3851,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -3872,7 +3896,7 @@
         <v>34</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>34</v>
@@ -3880,8 +3904,8 @@
       <c r="U43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>34</v>
+      <c r="V43" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -3895,23 +3919,23 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
       </c>
@@ -3925,31 +3949,31 @@
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>34</v>
+      <c r="V44" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -3963,22 +3987,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -4008,7 +4032,7 @@
         <v>34</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>34</v>
@@ -4016,8 +4040,8 @@
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>34</v>
+      <c r="V45" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -4031,22 +4055,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -4061,31 +4085,31 @@
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>34</v>
+      <c r="V46" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47">
@@ -4102,19 +4126,19 @@
         <v>154</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4144,7 +4168,7 @@
         <v>34</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>34</v>
@@ -4152,8 +4176,8 @@
       <c r="U47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>34</v>
+      <c r="V47" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48">
@@ -4173,16 +4197,16 @@
         <v>156</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>29</v>
@@ -4220,8 +4244,8 @@
       <c r="U48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>34</v>
+      <c r="V48" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -4241,16 +4265,16 @@
         <v>159</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4288,8 +4312,8 @@
       <c r="U49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>34</v>
+      <c r="V49" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -4309,16 +4333,16 @@
         <v>162</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>29</v>
@@ -4356,8 +4380,8 @@
       <c r="U50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>34</v>
+      <c r="V50" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -4377,16 +4401,16 @@
         <v>164</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4424,8 +4448,8 @@
       <c r="U51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>34</v>
+      <c r="V51" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -4445,16 +4469,16 @@
         <v>166</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
@@ -4492,8 +4516,8 @@
       <c r="U52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>34</v>
+      <c r="V52" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -4513,16 +4537,16 @@
         <v>168</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4560,8 +4584,8 @@
       <c r="U53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>34</v>
+      <c r="V53" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -4581,16 +4605,16 @@
         <v>171</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
@@ -4628,8 +4652,8 @@
       <c r="U54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>34</v>
+      <c r="V54" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -4649,16 +4673,16 @@
         <v>174</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>29</v>
@@ -4696,8 +4720,8 @@
       <c r="U55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>34</v>
+      <c r="V55" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -4717,16 +4741,16 @@
         <v>177</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -4764,8 +4788,8 @@
       <c r="U56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>34</v>
+      <c r="V56" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -4785,16 +4809,16 @@
         <v>180</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -4832,8 +4856,8 @@
       <c r="U57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>34</v>
+      <c r="V57" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58">
@@ -4853,16 +4877,16 @@
         <v>183</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>29</v>
@@ -4892,7 +4916,7 @@
         <v>34</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>34</v>
@@ -4902,6 +4926,142 @@
       </c>
       <c r="V58" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SRV.xlsx
+++ b/Excel-XLSX/UN-SRV.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>DV9b2v</t>
+    <t>xxBC7k</t>
   </si>
   <si>
     <t>1971</t>
@@ -1116,8 +1116,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1184,8 +1184,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1252,8 +1252,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1320,8 +1320,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1388,8 +1388,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1456,8 +1456,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>35</v>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1524,8 +1524,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>35</v>
+      <c r="V8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1592,8 +1592,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1660,8 +1660,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1728,8 +1728,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1796,8 +1796,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1864,8 +1864,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1932,8 +1932,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2000,8 +2000,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>35</v>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2068,8 +2068,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>35</v>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2136,8 +2136,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>35</v>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2204,8 +2204,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>35</v>
+      <c r="V18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2272,8 +2272,8 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>35</v>
+      <c r="V19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2340,8 +2340,8 @@
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>35</v>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2408,8 +2408,8 @@
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>35</v>
+      <c r="V21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2476,8 +2476,8 @@
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>35</v>
+      <c r="V22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2544,8 +2544,8 @@
       <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>35</v>
+      <c r="V23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2612,8 +2612,8 @@
       <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>35</v>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2680,8 +2680,8 @@
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>35</v>
+      <c r="V25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2748,8 +2748,8 @@
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>35</v>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -2816,8 +2816,8 @@
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>35</v>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2884,8 +2884,8 @@
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>35</v>
+      <c r="V28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2952,8 +2952,8 @@
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>35</v>
+      <c r="V29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -3020,8 +3020,8 @@
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>35</v>
+      <c r="V30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -3088,8 +3088,8 @@
       <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>35</v>
+      <c r="V31" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -3156,8 +3156,8 @@
       <c r="U32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>35</v>
+      <c r="V32" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -3224,8 +3224,8 @@
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>35</v>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3292,8 +3292,8 @@
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>35</v>
+      <c r="V34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3360,8 +3360,8 @@
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>35</v>
+      <c r="V35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3428,8 +3428,8 @@
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>35</v>
+      <c r="V36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3496,8 +3496,8 @@
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>35</v>
+      <c r="V37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3564,8 +3564,8 @@
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>35</v>
+      <c r="V38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3632,8 +3632,8 @@
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>35</v>
+      <c r="V39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -3768,8 +3768,8 @@
       <c r="U41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>35</v>
+      <c r="V41" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -3836,8 +3836,8 @@
       <c r="U42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>35</v>
+      <c r="V42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -3904,8 +3904,8 @@
       <c r="U43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>35</v>
+      <c r="V43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -3972,8 +3972,8 @@
       <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>35</v>
+      <c r="V44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -4040,8 +4040,8 @@
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>35</v>
+      <c r="V45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -4108,8 +4108,8 @@
       <c r="U46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>35</v>
+      <c r="V46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -4176,8 +4176,8 @@
       <c r="U47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>35</v>
+      <c r="V47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -4244,8 +4244,8 @@
       <c r="U48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>35</v>
+      <c r="V48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -4312,8 +4312,8 @@
       <c r="U49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>35</v>
+      <c r="V49" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -4380,8 +4380,8 @@
       <c r="U50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>35</v>
+      <c r="V50" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -4448,8 +4448,8 @@
       <c r="U51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>35</v>
+      <c r="V51" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -4516,8 +4516,8 @@
       <c r="U52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>35</v>
+      <c r="V52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -4584,8 +4584,8 @@
       <c r="U53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>35</v>
+      <c r="V53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -4652,8 +4652,8 @@
       <c r="U54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>35</v>
+      <c r="V54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -4720,8 +4720,8 @@
       <c r="U55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>35</v>
+      <c r="V55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -4788,8 +4788,8 @@
       <c r="U56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>35</v>
+      <c r="V56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -4856,8 +4856,8 @@
       <c r="U57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>35</v>
+      <c r="V57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -5060,8 +5060,8 @@
       <c r="U60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>35</v>
+      <c r="V60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SRV.xlsx
+++ b/Excel-XLSX/UN-SRV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -240,16 +240,34 @@
     <t>14</t>
   </si>
   <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>1987</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>1988</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>1989</t>
@@ -258,7 +276,7 @@
     <t>23060</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>1990</t>
@@ -267,7 +285,7 @@
     <t>21150</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>1991</t>
@@ -276,7 +294,7 @@
     <t>20148</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>1992</t>
@@ -288,7 +306,7 @@
     <t>1140</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>1993</t>
@@ -297,7 +315,7 @@
     <t>5084</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>1994</t>
@@ -306,7 +324,7 @@
     <t>5000</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>1995</t>
@@ -315,13 +333,13 @@
     <t>34400</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>1997</t>
@@ -330,19 +348,19 @@
     <t>15000</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>1998</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>1999</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>2000</t>
@@ -351,19 +369,19 @@
     <t>15945</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>2002</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>2003</t>
@@ -372,46 +390,76 @@
     <t>15360</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
     <t>2360</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>2005</t>
   </si>
   <si>
     <t>2357</t>
   </si>
   <si>
-    <t>33</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>34</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>7200</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
-    <t>35</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>36</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>37</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>2010</t>
@@ -420,7 +468,13 @@
     <t>1928</t>
   </si>
   <si>
-    <t>38</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>10200</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>2011</t>
@@ -429,7 +483,100 @@
     <t>990</t>
   </si>
   <si>
-    <t>39</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>29522</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>34110</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>30581</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>32890</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>35475</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>26811</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
   <si>
     <t>2023</t>
@@ -444,154 +591,16 @@
     <t>LKA</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>7200</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>10200</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>11500</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>29522</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>34110</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>30581</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>32890</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>35475</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>26811</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -976,7 +985,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1950,19 +1959,19 @@
         <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1977,7 +1986,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -2015,10 +2024,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -2045,7 +2054,7 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -2083,10 +2092,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>25</v>
@@ -2113,7 +2122,7 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>34</v>
@@ -2151,10 +2160,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -2181,7 +2190,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
@@ -2219,10 +2228,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>25</v>
@@ -2249,7 +2258,7 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>34</v>
@@ -2287,10 +2296,10 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>25</v>
@@ -2317,13 +2326,13 @@
         <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>34</v>
@@ -2355,10 +2364,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
@@ -2385,13 +2394,13 @@
         <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>34</v>
@@ -2423,10 +2432,10 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
@@ -2453,7 +2462,7 @@
         <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>34</v>
@@ -2491,10 +2500,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
@@ -2521,7 +2530,7 @@
         <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>34</v>
@@ -2559,10 +2568,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2589,7 +2598,7 @@
         <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>34</v>
@@ -2627,10 +2636,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
@@ -2657,7 +2666,7 @@
         <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>34</v>
@@ -2695,10 +2704,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2725,7 +2734,7 @@
         <v>32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2763,10 +2772,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -2793,7 +2802,7 @@
         <v>32</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2831,10 +2840,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
@@ -2861,7 +2870,7 @@
         <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>34</v>
@@ -2899,10 +2908,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -2929,7 +2938,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>34</v>
@@ -2967,10 +2976,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
@@ -2997,7 +3006,7 @@
         <v>32</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>34</v>
@@ -3035,10 +3044,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>25</v>
@@ -3065,7 +3074,7 @@
         <v>32</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>34</v>
@@ -3103,10 +3112,10 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>25</v>
@@ -3133,7 +3142,7 @@
         <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>34</v>
@@ -3174,7 +3183,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>25</v>
@@ -3201,7 +3210,7 @@
         <v>32</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>34</v>
@@ -3239,10 +3248,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>25</v>
@@ -3269,7 +3278,7 @@
         <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>34</v>
@@ -3307,22 +3316,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3337,7 +3346,7 @@
         <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>34</v>
@@ -3352,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>34</v>
@@ -3375,10 +3384,10 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>25</v>
@@ -3405,7 +3414,7 @@
         <v>32</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>34</v>
@@ -3443,22 +3452,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3473,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>34</v>
@@ -3488,7 +3497,7 @@
         <v>34</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>34</v>
@@ -3511,10 +3520,10 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>25</v>
@@ -3541,7 +3550,7 @@
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>34</v>
@@ -3579,22 +3588,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3609,7 +3618,7 @@
         <v>32</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>34</v>
@@ -3624,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>34</v>
@@ -3647,22 +3656,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3677,7 +3686,7 @@
         <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>34</v>
@@ -3715,22 +3724,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3760,7 +3769,7 @@
         <v>34</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>34</v>
@@ -3783,22 +3792,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -3813,7 +3822,7 @@
         <v>32</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>34</v>
@@ -3828,7 +3837,7 @@
         <v>34</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>34</v>
@@ -3851,22 +3860,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -3896,7 +3905,7 @@
         <v>34</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>34</v>
@@ -3919,22 +3928,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -3949,7 +3958,7 @@
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>34</v>
@@ -3964,7 +3973,7 @@
         <v>34</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="T44" s="2" t="s">
         <v>34</v>
@@ -3987,52 +3996,52 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>34</v>
@@ -4058,19 +4067,19 @@
         <v>152</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -4085,7 +4094,7 @@
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>34</v>
@@ -4100,7 +4109,7 @@
         <v>34</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>34</v>
@@ -4123,22 +4132,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4168,7 +4177,7 @@
         <v>34</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>34</v>
@@ -4191,22 +4200,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>29</v>
@@ -4236,7 +4245,7 @@
         <v>34</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>34</v>
@@ -4259,22 +4268,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4304,7 +4313,7 @@
         <v>34</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T49" s="2" t="s">
         <v>34</v>
@@ -4327,52 +4336,52 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>34</v>
@@ -4395,22 +4404,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4440,7 +4449,7 @@
         <v>34</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>34</v>
@@ -4463,22 +4472,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
@@ -4508,7 +4517,7 @@
         <v>34</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>34</v>
@@ -4531,22 +4540,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4576,7 +4585,7 @@
         <v>34</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T53" s="2" t="s">
         <v>34</v>
@@ -4599,22 +4608,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
@@ -4644,7 +4653,7 @@
         <v>34</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>34</v>
@@ -4667,22 +4676,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>29</v>
@@ -4712,7 +4721,7 @@
         <v>34</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>34</v>
@@ -4735,22 +4744,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -4780,7 +4789,7 @@
         <v>34</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>34</v>
@@ -4803,22 +4812,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -4848,7 +4857,7 @@
         <v>34</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>34</v>
@@ -4871,22 +4880,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>29</v>
@@ -4916,7 +4925,7 @@
         <v>34</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>34</v>
@@ -4939,22 +4948,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>29</v>
@@ -4969,7 +4978,7 @@
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>34</v>
@@ -4984,7 +4993,7 @@
         <v>34</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>34</v>
@@ -5007,60 +5016,196 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V60" s="2" t="s">
+      <c r="I61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V62" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-SRV.xlsx
+++ b/Excel-XLSX/UN-SRV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>xxBC7k</t>
+    <t>6RIyAV</t>
   </si>
   <si>
     <t>1971</t>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>61</t>
+  </si>
+  <si>
+    <t>20590</t>
   </si>
 </sst>
 </file>
@@ -5114,7 +5117,7 @@
         <v>32</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>34</v>
@@ -5197,7 +5200,7 @@
         <v>34</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="T62" s="2" t="s">
         <v>34</v>
